--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50C5F1-6FBC-4519-BC2E-BA80F2B01CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9067E87-8A07-4EC1-BA7F-9873FE5FDCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
   <sheets>
     <sheet name="授業" sheetId="1" r:id="rId1"/>
     <sheet name="コース" sheetId="2" r:id="rId2"/>
+    <sheet name="学年" sheetId="3" r:id="rId3"/>
+    <sheet name="生徒" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -377,6 +379,158 @@
   </si>
   <si>
     <t>00000007</t>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年少</t>
+    <rPh sb="0" eb="2">
+      <t>ネンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年中</t>
+    <rPh sb="0" eb="2">
+      <t>ネンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年長</t>
+    <rPh sb="0" eb="2">
+      <t>ネンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小１</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小２</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小３</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小４</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小５</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小６</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中１</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中２</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中３</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高１</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高２</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高３</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parents_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zip_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registered_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_datetime</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -946,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2E62C1-9ACC-4C7C-A505-0273D8A4A151}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1218,4 +1372,229 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CD7D3B-5078-4C48-A901-60CC868F4EB4}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18798274-D02E-4032-A3B6-D9BF5B205566}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData.xlsx
+++ b/testData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9067E87-8A07-4EC1-BA7F-9873FE5FDCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82104653-7883-4204-B99B-6622795D186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
   <sheets>
     <sheet name="授業" sheetId="1" r:id="rId1"/>
     <sheet name="コース" sheetId="2" r:id="rId2"/>
     <sheet name="学年" sheetId="3" r:id="rId3"/>
     <sheet name="生徒" sheetId="4" r:id="rId4"/>
+    <sheet name="時限" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -530,6 +531,96 @@
   </si>
   <si>
     <t>update_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１限</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２限</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３限</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４限</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５限</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６限</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７限</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８限</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>９限</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０限</t>
+    <rPh sb="2" eb="3">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_timed</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -591,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,6 +690,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1536,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18798274-D02E-4032-A3B6-D9BF5B205566}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1597,4 +1691,217 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E14B33-5FED-42A1-8FED-D0EBEC3A88A6}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82104653-7883-4204-B99B-6622795D186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADFF46C-B7D1-4724-9DD2-01CA920235AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
+    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
   <sheets>
     <sheet name="授業" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="学年" sheetId="3" r:id="rId3"/>
     <sheet name="生徒" sheetId="4" r:id="rId4"/>
     <sheet name="時限" sheetId="5" r:id="rId5"/>
+    <sheet name="講師" sheetId="6" r:id="rId6"/>
+    <sheet name="教科" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="183">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -616,19 +618,424 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>m_timed</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>院生</t>
+    <rPh sb="0" eb="2">
+      <t>インセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既卒</t>
+    <rPh sb="0" eb="2">
+      <t>キソツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>university</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>undergraduate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北川景子</t>
+    <rPh sb="0" eb="4">
+      <t>キタガワケイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キタガワケイコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAIGO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9:00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10:20:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶應義塾大学</t>
+    <rPh sb="0" eb="6">
+      <t>ケイオウギジュクダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経済学部</t>
+    <rPh sb="0" eb="4">
+      <t>ケイザイガクブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経済学科</t>
+    <rPh sb="0" eb="4">
+      <t>ケイザイガッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keiko@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都千代田区六番町</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>チヨダク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ロクバンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女優です。既婚者。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョユウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キコンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京大学</t>
+    <rPh sb="0" eb="4">
+      <t>トウキョウダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建築学部</t>
+    <rPh sb="0" eb="4">
+      <t>ケンチクガクブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建築学科</t>
+    <rPh sb="0" eb="4">
+      <t>ケンチクガッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09012345678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08012345678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daigo@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芸人</t>
+    <rPh sb="0" eb="2">
+      <t>ゲイニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学算数</t>
+    <rPh sb="0" eb="4">
+      <t>ショウガクサンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学国語</t>
+    <rPh sb="0" eb="4">
+      <t>ショウガクコクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_subject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学理科</t>
+    <rPh sb="0" eb="2">
+      <t>ショウガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学社会</t>
+    <rPh sb="0" eb="4">
+      <t>ショウガクシャカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学受験算数</t>
+    <rPh sb="0" eb="6">
+      <t>チュウガクジュケンサンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学受験国語</t>
+    <rPh sb="0" eb="6">
+      <t>チュウガクジュケンコクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学受験理科</t>
+    <rPh sb="0" eb="6">
+      <t>チュウガクジュケンリカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学受験社会</t>
+    <rPh sb="0" eb="6">
+      <t>チュウガクジュケンシャカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学英語</t>
+    <rPh sb="0" eb="2">
+      <t>チュウガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学数学</t>
+    <rPh sb="0" eb="4">
+      <t>チュウガクスウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学国語</t>
+    <rPh sb="0" eb="4">
+      <t>チュウガクコクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学理科</t>
+    <rPh sb="0" eb="2">
+      <t>チュウガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学社会</t>
+    <rPh sb="0" eb="4">
+      <t>チュウガクシャカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校英語</t>
+    <rPh sb="0" eb="4">
+      <t>コウコウエイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学Ⅰ・A</t>
+    <rPh sb="0" eb="2">
+      <t>スウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学Ⅱ・B</t>
+    <rPh sb="0" eb="2">
+      <t>スウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学Ⅲ</t>
+    <rPh sb="0" eb="2">
+      <t>スウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +1057,15 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -677,12 +1093,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,11 +1111,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1184,6 +1613,7 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1192,6 +1622,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2E62C1-9ACC-4C7C-A505-0273D8A4A151}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1470,10 +1901,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CD7D3B-5078-4C48-A901-60CC868F4EB4}">
-  <dimension ref="A1:B18"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1617,6 +2049,70 @@
       </c>
       <c r="B18" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1628,6 +2124,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18798274-D02E-4032-A3B6-D9BF5B205566}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1695,10 +2192,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E14B33-5FED-42A1-8FED-D0EBEC3A88A6}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1709,7 +2207,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -1736,11 +2234,11 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.43055555555555558</v>
+      <c r="C3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1753,12 +2251,6 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
@@ -1770,12 +2262,6 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
@@ -1787,12 +2273,6 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
@@ -1804,12 +2284,6 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
@@ -1821,12 +2295,6 @@
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
@@ -1838,12 +2306,6 @@
       <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
@@ -1855,12 +2317,6 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
@@ -1872,12 +2328,6 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" t="s">
-        <v>107</v>
-      </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
@@ -1888,12 +2338,6 @@
       </c>
       <c r="B12" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>107</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1904,4 +2348,367 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AC6CA1-D558-4AD5-B847-B0EA9F0E76B2}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="3">
+        <v>32392</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3">
+        <v>1589999</v>
+      </c>
+      <c r="M3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30571</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4">
+        <v>1589999</v>
+      </c>
+      <c r="M4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{BDEBB2BA-9734-4025-8A16-F727992ACBCE}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{A2B5A737-BAC1-45EB-B49E-6C4184018EC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDB79C5-6942-4838-AAF5-D6D68B5E46F4}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADFF46C-B7D1-4724-9DD2-01CA920235AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B128D7-A843-45B0-A042-B09C60F0FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
+    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
   <sheets>
     <sheet name="授業" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="生徒" sheetId="4" r:id="rId4"/>
     <sheet name="時限" sheetId="5" r:id="rId5"/>
     <sheet name="講師" sheetId="6" r:id="rId6"/>
-    <sheet name="教科" sheetId="7" r:id="rId7"/>
+    <sheet name="講師担当可能教科" sheetId="8" r:id="rId7"/>
+    <sheet name="教科" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="237">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -722,126 +723,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>北川景子</t>
-    <rPh sb="0" eb="4">
-      <t>キタガワケイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キタガワケイコ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>female</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DAIGO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>male</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>9:00:00</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>10:20:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>慶應義塾大学</t>
-    <rPh sb="0" eb="6">
-      <t>ケイオウギジュクダイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経済学部</t>
-    <rPh sb="0" eb="4">
-      <t>ケイザイガクブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経済学科</t>
-    <rPh sb="0" eb="4">
-      <t>ケイザイガッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>keiko@gmail.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京都千代田区六番町</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>チヨダク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ロクバンチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女優です。既婚者。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョユウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>キコンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京大学</t>
-    <rPh sb="0" eb="4">
-      <t>トウキョウダイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>建築学部</t>
-    <rPh sb="0" eb="4">
-      <t>ケンチクガクブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>建築学科</t>
-    <rPh sb="0" eb="4">
-      <t>ケンチクガッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>09012345678</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>08012345678</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>daigo@gmail.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芸人</t>
-    <rPh sb="0" eb="2">
-      <t>ゲイニン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1029,6 +915,284 @@
   </si>
   <si>
     <t>0017</t>
+  </si>
+  <si>
+    <t>現代文</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンダイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古文</t>
+    <rPh sb="0" eb="2">
+      <t>コブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢文</t>
+    <rPh sb="0" eb="2">
+      <t>カンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小論文</t>
+    <rPh sb="0" eb="3">
+      <t>ショウロンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界史</t>
+    <rPh sb="0" eb="3">
+      <t>セカイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本史</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地理</t>
+    <rPh sb="0" eb="2">
+      <t>チリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現代社会</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンダイシャカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倫理</t>
+    <rPh sb="0" eb="2">
+      <t>リンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>政治経済</t>
+    <rPh sb="0" eb="4">
+      <t>セイジケイザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <rPh sb="0" eb="2">
+      <t>カガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <rPh sb="0" eb="2">
+      <t>セイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地学</t>
+    <rPh sb="0" eb="2">
+      <t>チガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>teacher_subject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teacher_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>渡崎 真琴</t>
+  </si>
+  <si>
+    <t>ワタリザキ マコト</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>1998-03-10</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>田村 天</t>
+  </si>
+  <si>
+    <t>タムラ タカシ</t>
+  </si>
+  <si>
+    <t>2021-07-12 22:39:35.395808</t>
+  </si>
+  <si>
+    <t>00000004</t>
+  </si>
+  <si>
+    <t>2021-07-12 22:40:09.321386</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>齋藤 飛鳥</t>
+  </si>
+  <si>
+    <t>サイトウ アスカ</t>
+  </si>
+  <si>
+    <t>1998-08-10</t>
+  </si>
+  <si>
+    <t>早稲田大学</t>
+  </si>
+  <si>
+    <t>法学部</t>
+  </si>
+  <si>
+    <t>法律学科</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>07044448888</t>
+  </si>
+  <si>
+    <t>ashurin@nogizaka.co.jp</t>
+  </si>
+  <si>
+    <t>1508001</t>
+  </si>
+  <si>
+    <t>東京都渋谷区</t>
+  </si>
+  <si>
+    <t>乃木坂の主役</t>
+  </si>
+  <si>
+    <t>2021-07-14 02:50:13.302925</t>
+  </si>
+  <si>
+    <t>2021-07-14 02:51:33.544718</t>
+  </si>
+  <si>
+    <t>白石 麻衣</t>
+  </si>
+  <si>
+    <t>シライシ マイ</t>
+  </si>
+  <si>
+    <t>1992-08-20</t>
+  </si>
+  <si>
+    <t>2021-07-14 02:58:43.204408</t>
+  </si>
+  <si>
+    <t>田中 一郎</t>
+  </si>
+  <si>
+    <t>タナカ イチロウ</t>
+  </si>
+  <si>
+    <t>2001-04-01</t>
+  </si>
+  <si>
+    <t>青山学院大学</t>
+  </si>
+  <si>
+    <t>国際教養学部</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>09012334567</t>
+  </si>
+  <si>
+    <t>tanaka@xxx.co.jp</t>
+  </si>
+  <si>
+    <t>5559999</t>
+  </si>
+  <si>
+    <t>東京都渋谷区南青山</t>
+  </si>
+  <si>
+    <t>2021-07-14 21:07:59.466879</t>
   </si>
 </sst>
 </file>
@@ -1111,16 +1275,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2234,11 +2398,11 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>133</v>
+      <c r="C3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2353,204 +2517,421 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AC6CA1-D558-4AD5-B847-B0EA9F0E76B2}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="3">
-        <v>32392</v>
-      </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L3">
-        <v>1589999</v>
-      </c>
-      <c r="M3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>140</v>
-      </c>
+      <c r="A3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="O3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="3">
-        <v>30571</v>
-      </c>
-      <c r="F4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4">
-        <v>1589999</v>
-      </c>
-      <c r="M4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>140</v>
+      <c r="A4" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="O4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{BDEBB2BA-9734-4025-8A16-F727992ACBCE}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{A2B5A737-BAC1-45EB-B49E-6C4184018EC4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4666713E-9F93-4A0D-AD46-ECA69AFCB1B0}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDB79C5-6942-4838-AAF5-D6D68B5E46F4}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2560,7 +2941,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -2573,142 +2954,255 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B128D7-A843-45B0-A042-B09C60F0FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C57D52D-5BC4-40F4-BFE0-22F2102BA0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
+    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
   <sheets>
     <sheet name="授業" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="214">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -92,22 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lesson1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lesson2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lesson3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>00000001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,14 +101,6 @@
   </si>
   <si>
     <t>00000002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00000006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00000007</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -139,6 +115,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>パズル【図・思】</t>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル【数】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル【国】</t>
+    <rPh sb="3" eb="6">
+      <t>(コク)</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学ネット</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル道場【国語】</t>
+    <rPh sb="3" eb="5">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>反復演習ジムeトレ＆eドリル</t>
     <rPh sb="0" eb="4">
       <t>ハンプクエンシュウ</t>
@@ -146,6 +160,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>デイビッド・セイン英語ジム</t>
+    <rPh sb="9" eb="11">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000008</t>
+  </si>
+  <si>
+    <t>00000008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東大個別指導会T・MEG</t>
+    <rPh sb="0" eb="7">
+      <t>トウダイコベツシドウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMEG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000009</t>
+  </si>
+  <si>
+    <t>00000009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>LOGICTREE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -157,169 +207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東大個別指導会 T・MEG</t>
-    <rPh sb="0" eb="7">
-      <t>トウダイコベツシドウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル道場 50分コース</t>
-    <rPh sb="3" eb="5">
-      <t>ドウジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル道場 100分コース</t>
-    <rPh sb="3" eb="5">
-      <t>ドウジョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル道場 150分コース</t>
-    <rPh sb="3" eb="5">
-      <t>ドウジョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デイビッド・セイン英語ジムBasic 100分コース</t>
-    <rPh sb="9" eb="11">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デイビッド・セイン英語ジムStandard 100分コース</t>
-    <rPh sb="9" eb="11">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デイビッド・セイン英語ジムPremium 200分コース</t>
-    <rPh sb="9" eb="11">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lesson4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル【図・思】</t>
-    <rPh sb="6" eb="7">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル【数】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル【国】</t>
-    <rPh sb="3" eb="6">
-      <t>(コク)</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中学ネット</t>
-    <rPh sb="0" eb="1">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル道場【国語】</t>
-    <rPh sb="3" eb="5">
-      <t>ドウジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コクゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復演習ジムeトレ＆eドリル</t>
-    <rPh sb="0" eb="4">
-      <t>ハンプクエンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デイビッド・セイン英語ジム</t>
-    <rPh sb="9" eb="11">
-      <t>エイゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00000008</t>
-  </si>
-  <si>
-    <t>00000008</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東大個別指導会T・MEG</t>
-    <rPh sb="0" eb="7">
-      <t>トウダイコベツシドウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TMEG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00000009</t>
-  </si>
-  <si>
-    <t>00000009</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LOGICTREE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東進衛星予備校</t>
-    <rPh sb="0" eb="7">
-      <t>トウシンエイセイヨビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>東進</t>
     <rPh sb="0" eb="2">
       <t>トウシン</t>
@@ -335,51 +222,7 @@
   </si>
   <si>
     <t>00000011</t>
-  </si>
-  <si>
-    <t>00000011</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル150</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>演習</t>
-    <rPh sb="0" eb="2">
-      <t>エンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セインPremium</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東進中学ネット</t>
-    <rPh sb="0" eb="4">
-      <t>トウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00000005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00000006</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>00000007</t>
@@ -1193,6 +1036,40 @@
   </si>
   <si>
     <t>2021-07-14 21:07:59.466879</t>
+  </si>
+  <si>
+    <t>classTimes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週１回</t>
+    <rPh sb="0" eb="1">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週２回</t>
+    <rPh sb="0" eb="1">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週３回</t>
+    <rPh sb="0" eb="1">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1670,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -1684,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -1695,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1706,13 +1583,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -1720,13 +1597,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -1734,46 +1611,46 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1789,14 +1666,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="47.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -1812,249 +1689,94 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3">
-        <v>11000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <v>16000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5">
-        <v>19000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6">
-        <v>35000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7">
-        <v>14000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8">
-        <v>14000</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9">
-        <v>16000</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>12000</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>40000</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12">
-        <v>29000</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13">
-        <v>30000</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2076,7 +1798,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -2084,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2092,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -2100,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -2108,7 +1830,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -2116,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -2124,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -2132,7 +1854,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -2140,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -2148,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -2156,7 +1878,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -2164,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -2172,7 +1894,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -2180,7 +1902,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -2188,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -2196,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -2204,7 +1926,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -2212,7 +1934,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -2220,7 +1942,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -2228,7 +1950,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -2236,7 +1958,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -2244,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -2252,7 +1974,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -2260,7 +1982,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -2268,7 +1990,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -2276,7 +1998,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +2029,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -2318,34 +2040,34 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2093,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -2382,13 +2104,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -2396,13 +2118,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2413,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2424,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2435,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2446,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2457,7 +2179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2468,7 +2190,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2479,7 +2201,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -2490,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2501,7 +2223,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2519,7 +2241,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2547,7 +2269,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -2558,275 +2280,275 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
       <c r="O3" s="4" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
       <c r="O4" s="4" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="M9" s="4" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2852,71 +2574,71 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2941,7 +2663,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -2954,250 +2676,250 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C57D52D-5BC4-40F4-BFE0-22F2102BA0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359EF38A-F496-452E-AF08-383279990A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
+    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
   <sheets>
     <sheet name="授業" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="学年" sheetId="3" r:id="rId3"/>
     <sheet name="生徒" sheetId="4" r:id="rId4"/>
     <sheet name="時限" sheetId="5" r:id="rId5"/>
-    <sheet name="講師" sheetId="6" r:id="rId6"/>
-    <sheet name="講師担当可能教科" sheetId="8" r:id="rId7"/>
-    <sheet name="教科" sheetId="7" r:id="rId8"/>
+    <sheet name="時間割" sheetId="9" r:id="rId6"/>
+    <sheet name="講師" sheetId="6" r:id="rId7"/>
+    <sheet name="講師担当可能教科" sheetId="8" r:id="rId8"/>
+    <sheet name="教科" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="239">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -1068,6 +1069,127 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10:30:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11:50:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13:00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14:30:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16:00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17:30:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19:00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20:30:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14:20:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15:50:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17:20:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18:50:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20:20:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21:50:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_timetable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timed_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opening_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1666,8 +1788,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2082,7 +2204,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2137,6 +2259,12 @@
       <c r="B4" t="s">
         <v>71</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
@@ -2148,6 +2276,12 @@
       <c r="B5" t="s">
         <v>72</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
@@ -2159,6 +2293,12 @@
       <c r="B6" t="s">
         <v>73</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
@@ -2170,6 +2310,12 @@
       <c r="B7" t="s">
         <v>74</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
@@ -2181,6 +2327,12 @@
       <c r="B8" t="s">
         <v>75</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
@@ -2192,6 +2344,12 @@
       <c r="B9" t="s">
         <v>76</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
@@ -2203,6 +2361,12 @@
       <c r="B10" t="s">
         <v>77</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
@@ -2215,7 +2379,7 @@
         <v>78</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -2226,7 +2390,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2237,6 +2401,657 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844DA52D-58AB-4D95-81B5-0E939EF063CF}">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AC6CA1-D558-4AD5-B847-B0EA9F0E76B2}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R9"/>
@@ -2557,7 +3372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4666713E-9F93-4A0D-AD46-ECA69AFCB1B0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -2647,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDB79C5-6942-4838-AAF5-D6D68B5E46F4}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B33"/>

--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359EF38A-F496-452E-AF08-383279990A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3081D1F-29CA-4A4B-9F0F-B65AA0FED66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="247">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -1133,64 +1133,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>day</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>timed_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>opening_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>月</t>
-    <rPh sb="0" eb="1">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>火</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水</t>
-    <rPh sb="0" eb="1">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木</t>
-    <rPh sb="0" eb="1">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金</t>
-    <rPh sb="0" eb="1">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>土</t>
-    <rPh sb="0" eb="1">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日</t>
-    <rPh sb="0" eb="1">
-      <t>ニチ</t>
-    </rPh>
+    <t>mon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>satur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2402,652 +2407,264 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844DA52D-58AB-4D95-81B5-0E939EF063CF}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="D2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="E2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="F2" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>234</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>234</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="G2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B34">
-        <v>8</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="H2" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>236</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>236</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>236</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>236</v>
-      </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>237</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>237</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>237</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>237</v>
-      </c>
-      <c r="B47">
-        <v>5</v>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>237</v>
-      </c>
-      <c r="B48">
-        <v>6</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>237</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B50">
-        <v>8</v>
-      </c>
-      <c r="C50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+      <c r="B3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>238</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>238</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>238</v>
-      </c>
-      <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57">
-        <v>7</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>238</v>
-      </c>
-      <c r="B58">
-        <v>8</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
+      <c r="B4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3081D1F-29CA-4A4B-9F0F-B65AA0FED66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB04806D-371C-4186-A187-D30B39785E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
+    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
   <sheets>
     <sheet name="授業" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="284">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -516,13 +516,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既卒</t>
-    <rPh sb="0" eb="2">
-      <t>キソツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>teacher</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -916,39 +909,15 @@
     <t>00000001</t>
   </si>
   <si>
-    <t>渡崎 真琴</t>
-  </si>
-  <si>
-    <t>ワタリザキ マコト</t>
-  </si>
-  <si>
     <t>female</t>
   </si>
   <si>
-    <t>1998-03-10</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>00000003</t>
   </si>
   <si>
-    <t>田村 天</t>
-  </si>
-  <si>
-    <t>タムラ タカシ</t>
-  </si>
-  <si>
-    <t>2021-07-12 22:39:35.395808</t>
-  </si>
-  <si>
-    <t>00000004</t>
-  </si>
-  <si>
-    <t>2021-07-12 22:40:09.321386</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -986,9 +955,6 @@
   </si>
   <si>
     <t>乃木坂の主役</t>
-  </si>
-  <si>
-    <t>2021-07-14 02:50:13.302925</t>
   </si>
   <si>
     <t>2021-07-14 02:51:33.544718</t>
@@ -1196,6 +1162,184 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶應義塾大学</t>
+    <rPh sb="0" eb="6">
+      <t>ケイオウギジュクダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経済学部</t>
+    <rPh sb="0" eb="4">
+      <t>ケイザイガクブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経済学科</t>
+    <rPh sb="0" eb="4">
+      <t>ケイザイガッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卒業</t>
+    <rPh sb="0" eb="2">
+      <t>ソツギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08012345678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shiraishi@nogizaka.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1500001</t>
+  </si>
+  <si>
+    <t>1500001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都港区</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町田 里歌</t>
+  </si>
+  <si>
+    <t>マチダ リカ</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2002-04-01</t>
+  </si>
+  <si>
+    <t>日本女子大学付属</t>
+  </si>
+  <si>
+    <t>絵里</t>
+  </si>
+  <si>
+    <t>東京都新宿区市谷田町0-0-0</t>
+  </si>
+  <si>
+    <t>2021-07-09 23:14:38.386977</t>
+  </si>
+  <si>
+    <t>髙橋 慶</t>
+  </si>
+  <si>
+    <t>タカハシ ケイ</t>
+  </si>
+  <si>
+    <t>2004-03-03</t>
+  </si>
+  <si>
+    <t>愛日</t>
+  </si>
+  <si>
+    <t>祐子</t>
+  </si>
+  <si>
+    <t>07012345678</t>
+  </si>
+  <si>
+    <t>東京都新宿区市谷田町3-1</t>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>2021-07-09 23:34:03.237597</t>
+  </si>
+  <si>
+    <t>2021-07-11 23:46:40.267513</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>小室 葉留</t>
+  </si>
+  <si>
+    <t>コムロ ハル</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>komuro@xxx.jp</t>
+  </si>
+  <si>
+    <t>0311112222</t>
+  </si>
+  <si>
+    <t>1508111</t>
+  </si>
+  <si>
+    <t>東京都新宿区市谷田町4-5</t>
+  </si>
+  <si>
+    <t>2021-07-11 23:39:15.45614</t>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mailAddress</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1816,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1829,7 +1973,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1841,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1854,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1917,7 +2061,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2125,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2138,63 +2282,202 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18798274-D02E-4032-A3B6-D9BF5B205566}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="19.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="26.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2248,10 +2531,10 @@
         <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2265,10 +2548,10 @@
         <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2282,10 +2565,10 @@
         <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2299,10 +2582,10 @@
         <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2316,10 +2599,10 @@
         <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2333,10 +2616,10 @@
         <v>75</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2350,10 +2633,10 @@
         <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2367,10 +2650,10 @@
         <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -2409,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844DA52D-58AB-4D95-81B5-0E939EF063CF}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2424,241 +2707,241 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2671,10 +2954,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AC6CA1-D558-4AD5-B847-B0EA9F0E76B2}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2701,7 +2984,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -2712,22 +2995,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>41</v>
@@ -2739,16 +3022,16 @@
         <v>62</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>64</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>65</v>
@@ -2757,244 +3040,168 @@
         <v>66</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="O3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>174</v>
+      <c r="A4" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>176</v>
+        <v>190</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{707A84D7-B11B-4B82-81FA-937DE3FDAF38}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4666713E-9F93-4A0D-AD46-ECA69AFCB1B0}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3006,15 +3213,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -3022,7 +3229,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -3030,7 +3237,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -3038,7 +3245,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -3046,7 +3253,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -3054,7 +3261,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -3062,7 +3269,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -3070,12 +3277,53 @@
         <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3085,7 +3333,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3095,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -3108,250 +3356,250 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
         <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
         <v>107</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB04806D-371C-4186-A187-D30B39785E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210AD499-3BEB-4383-897E-4D4735937AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
+    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
   <sheets>
     <sheet name="授業" sheetId="1" r:id="rId1"/>
     <sheet name="コース" sheetId="2" r:id="rId2"/>
     <sheet name="学年" sheetId="3" r:id="rId3"/>
     <sheet name="生徒" sheetId="4" r:id="rId4"/>
-    <sheet name="時限" sheetId="5" r:id="rId5"/>
-    <sheet name="時間割" sheetId="9" r:id="rId6"/>
-    <sheet name="講師" sheetId="6" r:id="rId7"/>
-    <sheet name="講師担当可能教科" sheetId="8" r:id="rId8"/>
-    <sheet name="教科" sheetId="7" r:id="rId9"/>
+    <sheet name="社員" sheetId="10" r:id="rId5"/>
+    <sheet name="時限" sheetId="5" r:id="rId6"/>
+    <sheet name="時間割" sheetId="9" r:id="rId7"/>
+    <sheet name="講師" sheetId="6" r:id="rId8"/>
+    <sheet name="講師担当可能教科" sheetId="8" r:id="rId9"/>
+    <sheet name="教科" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="292">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -1340,6 +1341,50 @@
   </si>
   <si>
     <t>mailAddress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_employee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROLE_ADMIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1993-03-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田村達也</t>
+    <rPh sb="0" eb="2">
+      <t>タムラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タツヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1992-08-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROLE_GENERAL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1413,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1433,6 +1478,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1932,6 +1980,288 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDB79C5-6942-4838-AAF5-D6D68B5E46F4}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2E62C1-9ACC-4C7C-A505-0273D8A4A151}">
   <sheetPr codeName="Sheet1"/>
@@ -2284,7 +2614,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2487,6 +2817,75 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4636D97B-2EFB-4E03-9EE5-FC83761D8572}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E14B33-5FED-42A1-8FED-D0EBEC3A88A6}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E12"/>
@@ -2688,7 +3087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844DA52D-58AB-4D95-81B5-0E939EF063CF}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2951,7 +3350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AC6CA1-D558-4AD5-B847-B0EA9F0E76B2}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R5"/>
@@ -3196,7 +3595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4666713E-9F93-4A0D-AD46-ECA69AFCB1B0}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3325,286 +3724,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDB79C5-6942-4838-AAF5-D6D68B5E46F4}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210AD499-3BEB-4383-897E-4D4735937AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07FA699-F3CB-4348-8A99-76C6F92AF4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="294">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -1385,6 +1385,13 @@
   </si>
   <si>
     <t>ROLE_GENERAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$2a$10$xRTXvpMWly0oGiu65WZlm.3YL95LGVV2ASFjDhe6WF4.Qji1huIPa</t>
+  </si>
+  <si>
+    <t>password</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2818,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4636D97B-2EFB-4E03-9EE5-FC83761D8572}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2831,12 +2838,12 @@
     <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2849,8 +2856,11 @@
       <c r="D2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2863,8 +2873,11 @@
       <c r="D3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>268</v>
       </c>

--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamut\OneDrive\Documents\プログラミング\jukuSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07FA699-F3CB-4348-8A99-76C6F92AF4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311159C0-0619-4DA7-8AEC-BC3D46179BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
+    <workbookView xWindow="22932" yWindow="4908" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2E2B984F-1259-433D-8CA3-CDDAA278206F}"/>
   </bookViews>
   <sheets>
     <sheet name="授業" sheetId="1" r:id="rId1"/>
     <sheet name="コース" sheetId="2" r:id="rId2"/>
     <sheet name="学年" sheetId="3" r:id="rId3"/>
     <sheet name="生徒" sheetId="4" r:id="rId4"/>
-    <sheet name="社員" sheetId="10" r:id="rId5"/>
-    <sheet name="時限" sheetId="5" r:id="rId6"/>
-    <sheet name="時間割" sheetId="9" r:id="rId7"/>
-    <sheet name="講師" sheetId="6" r:id="rId8"/>
-    <sheet name="講師担当可能教科" sheetId="8" r:id="rId9"/>
-    <sheet name="教科" sheetId="7" r:id="rId10"/>
+    <sheet name="生徒授業" sheetId="11" r:id="rId5"/>
+    <sheet name="社員" sheetId="10" r:id="rId6"/>
+    <sheet name="時限" sheetId="5" r:id="rId7"/>
+    <sheet name="時間割" sheetId="9" r:id="rId8"/>
+    <sheet name="講師" sheetId="6" r:id="rId9"/>
+    <sheet name="講師担当可能教科" sheetId="8" r:id="rId10"/>
+    <sheet name="教科" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="298">
   <si>
     <t>lesson</t>
     <phoneticPr fontId="1"/>
@@ -1392,6 +1393,22 @@
   </si>
   <si>
     <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student_class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1988,6 +2005,137 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4666713E-9F93-4A0D-AD46-ECA69AFCB1B0}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDB79C5-6942-4838-AAF5-D6D68B5E46F4}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B33"/>
@@ -2621,8 +2769,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2824,11 +2972,58 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E7675-5AED-426B-AF8E-7A796ADD488B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4636D97B-2EFB-4E03-9EE5-FC83761D8572}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2890,6 +3085,9 @@
       <c r="D4" t="s">
         <v>291</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2898,7 +3096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E14B33-5FED-42A1-8FED-D0EBEC3A88A6}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E12"/>
@@ -3100,7 +3298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844DA52D-58AB-4D95-81B5-0E939EF063CF}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -3363,7 +3561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AC6CA1-D558-4AD5-B847-B0EA9F0E76B2}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R5"/>
@@ -3606,135 +3804,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4666713E-9F93-4A0D-AD46-ECA69AFCB1B0}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>